--- a/Tests/Validation/Stock/LUDFValidateData.xlsx
+++ b/Tests/Validation/Stock/LUDFValidateData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Repos\ApsimX\Tests\Validation\Stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB416D43-DEEC-4982-BD21-E1C3C935B37B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DE56A89-6DB0-4102-BC53-5A17BACE2C06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{39E5DCD2-CDC3-4CA2-9EC8-3F0422921786}"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{39E5DCD2-CDC3-4CA2-9EC8-3F0422921786}"/>
   </bookViews>
   <sheets>
     <sheet name="ValidationData" sheetId="6" r:id="rId1"/>
@@ -103,7 +103,7 @@
     <t>StockSlurp</t>
   </si>
   <si>
-    <t>Clock.Today</t>
+    <t>Date</t>
   </si>
 </sst>
 </file>
@@ -471,7 +471,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34C3B32E-3164-433D-97A0-DF3576970E30}">
   <dimension ref="A1:N568"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -42415,9 +42415,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{082DE872-AEF2-43D0-A493-586867A22B46}">
   <dimension ref="A1:H568"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
